--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Serpinc1-Sdc2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Serpinc1-Sdc2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.551825333333333</v>
+        <v>4.469240333333333</v>
       </c>
       <c r="H2">
-        <v>13.655476</v>
+        <v>13.407721</v>
       </c>
       <c r="I2">
-        <v>0.3901863008207799</v>
+        <v>0.3358648218165975</v>
       </c>
       <c r="J2">
-        <v>0.3901863008207799</v>
+        <v>0.3358648218165975</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.057109</v>
+        <v>1.819857</v>
       </c>
       <c r="N2">
-        <v>9.171327</v>
+        <v>5.459571</v>
       </c>
       <c r="O2">
-        <v>0.02694952608666365</v>
+        <v>0.01485317462584607</v>
       </c>
       <c r="P2">
-        <v>0.02694952608666365</v>
+        <v>0.01485317462584607</v>
       </c>
       <c r="Q2">
-        <v>13.91542619296133</v>
+        <v>8.133378305298999</v>
       </c>
       <c r="R2">
-        <v>125.238835736652</v>
+        <v>73.200404747691</v>
       </c>
       <c r="S2">
-        <v>0.0105153358926284</v>
+        <v>0.004988658849120597</v>
       </c>
       <c r="T2">
-        <v>0.0105153358926284</v>
+        <v>0.004988658849120598</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.551825333333333</v>
+        <v>4.469240333333333</v>
       </c>
       <c r="H3">
-        <v>13.655476</v>
+        <v>13.407721</v>
       </c>
       <c r="I3">
-        <v>0.3901863008207799</v>
+        <v>0.3358648218165975</v>
       </c>
       <c r="J3">
-        <v>0.3901863008207799</v>
+        <v>0.3358648218165975</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>267.08268</v>
       </c>
       <c r="O3">
-        <v>0.7848102735793893</v>
+        <v>0.726618572334523</v>
       </c>
       <c r="P3">
-        <v>0.7848102735793893</v>
+        <v>0.7266185723345231</v>
       </c>
       <c r="Q3">
-        <v>405.2379029728533</v>
+        <v>397.8855619302532</v>
       </c>
       <c r="R3">
-        <v>3647.14112675568</v>
+        <v>3580.970057372279</v>
       </c>
       <c r="S3">
-        <v>0.3062222174940862</v>
+        <v>0.244045617325765</v>
       </c>
       <c r="T3">
-        <v>0.3062222174940862</v>
+        <v>0.2440456173257651</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.551825333333333</v>
+        <v>4.469240333333333</v>
       </c>
       <c r="H4">
-        <v>13.655476</v>
+        <v>13.407721</v>
       </c>
       <c r="I4">
-        <v>0.3901863008207799</v>
+        <v>0.3358648218165975</v>
       </c>
       <c r="J4">
-        <v>0.3901863008207799</v>
+        <v>0.3358648218165975</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.16964733333333</v>
+        <v>31.52924033333333</v>
       </c>
       <c r="N4">
-        <v>63.508942</v>
+        <v>94.58772099999999</v>
       </c>
       <c r="O4">
-        <v>0.1866181294337677</v>
+        <v>0.257333028084772</v>
       </c>
       <c r="P4">
-        <v>0.1866181294337677</v>
+        <v>0.257333028084772</v>
       </c>
       <c r="Q4">
-        <v>96.36053702959912</v>
+        <v>140.9117525770934</v>
       </c>
       <c r="R4">
-        <v>867.244833266392</v>
+        <v>1268.205773193841</v>
       </c>
       <c r="S4">
-        <v>0.07281583758985534</v>
+        <v>0.08642911162521745</v>
       </c>
       <c r="T4">
-        <v>0.07281583758985534</v>
+        <v>0.08642911162521745</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.551825333333333</v>
+        <v>4.469240333333333</v>
       </c>
       <c r="H5">
-        <v>13.655476</v>
+        <v>13.407721</v>
       </c>
       <c r="I5">
-        <v>0.3901863008207799</v>
+        <v>0.3358648218165975</v>
       </c>
       <c r="J5">
-        <v>0.3901863008207799</v>
+        <v>0.3358648218165975</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.184005</v>
+        <v>0.1464426666666667</v>
       </c>
       <c r="N5">
-        <v>0.5520149999999999</v>
+        <v>0.439328</v>
       </c>
       <c r="O5">
-        <v>0.0016220709001794</v>
+        <v>0.001195224954858853</v>
       </c>
       <c r="P5">
-        <v>0.0016220709001794</v>
+        <v>0.001195224954858853</v>
       </c>
       <c r="Q5">
-        <v>0.8375586204599998</v>
+        <v>0.6544874723875554</v>
       </c>
       <c r="R5">
-        <v>7.538027584139999</v>
+        <v>5.890387251488</v>
       </c>
       <c r="S5">
-        <v>0.0006329098442100326</v>
+        <v>0.0004014340164944193</v>
       </c>
       <c r="T5">
-        <v>0.0006329098442100325</v>
+        <v>0.0004014340164944194</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>10.866118</v>
       </c>
       <c r="I6">
-        <v>0.3104842618962599</v>
+        <v>0.2721973992379558</v>
       </c>
       <c r="J6">
-        <v>0.3104842618962599</v>
+        <v>0.2721973992379558</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.057109</v>
+        <v>1.819857</v>
       </c>
       <c r="N6">
-        <v>9.171327</v>
+        <v>5.459571</v>
       </c>
       <c r="O6">
-        <v>0.02694952608666365</v>
+        <v>0.01485317462584607</v>
       </c>
       <c r="P6">
-        <v>0.02694952608666365</v>
+        <v>0.01485317462584607</v>
       </c>
       <c r="Q6">
-        <v>11.07296904428733</v>
+        <v>6.591593635042</v>
       </c>
       <c r="R6">
-        <v>99.656721398586</v>
+        <v>59.324342715378</v>
       </c>
       <c r="S6">
-        <v>0.008367403715471764</v>
+        <v>0.004042995503582497</v>
       </c>
       <c r="T6">
-        <v>0.008367403715471764</v>
+        <v>0.004042995503582497</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>10.866118</v>
       </c>
       <c r="I7">
-        <v>0.3104842618962599</v>
+        <v>0.2721973992379558</v>
       </c>
       <c r="J7">
-        <v>0.3104842618962599</v>
+        <v>0.2721973992379558</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>267.08268</v>
       </c>
       <c r="O7">
-        <v>0.7848102735793893</v>
+        <v>0.726618572334523</v>
       </c>
       <c r="P7">
-        <v>0.7848102735793893</v>
+        <v>0.7266185723345231</v>
       </c>
       <c r="Q7">
         <v>322.4613240706933</v>
@@ -883,10 +883,10 @@
         <v>2902.15191663624</v>
       </c>
       <c r="S7">
-        <v>0.2436712385208985</v>
+        <v>0.1977836856274536</v>
       </c>
       <c r="T7">
-        <v>0.2436712385208985</v>
+        <v>0.1977836856274536</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>10.866118</v>
       </c>
       <c r="I8">
-        <v>0.3104842618962599</v>
+        <v>0.2721973992379558</v>
       </c>
       <c r="J8">
-        <v>0.3104842618962599</v>
+        <v>0.2721973992379558</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.16964733333333</v>
+        <v>31.52924033333333</v>
       </c>
       <c r="N8">
-        <v>63.508942</v>
+        <v>94.58772099999999</v>
       </c>
       <c r="O8">
-        <v>0.1866181294337677</v>
+        <v>0.257333028084772</v>
       </c>
       <c r="P8">
-        <v>0.1866181294337677</v>
+        <v>0.257333028084772</v>
       </c>
       <c r="Q8">
-        <v>76.67729531412844</v>
+        <v>114.2001486374531</v>
       </c>
       <c r="R8">
-        <v>690.0956578271559</v>
+        <v>1027.801337737078</v>
       </c>
       <c r="S8">
-        <v>0.05794199217370407</v>
+        <v>0.0700453809827028</v>
       </c>
       <c r="T8">
-        <v>0.05794199217370406</v>
+        <v>0.07004538098270278</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>10.866118</v>
       </c>
       <c r="I9">
-        <v>0.3104842618962599</v>
+        <v>0.2721973992379558</v>
       </c>
       <c r="J9">
-        <v>0.3104842618962599</v>
+        <v>0.2721973992379558</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.184005</v>
+        <v>0.1464426666666667</v>
       </c>
       <c r="N9">
-        <v>0.5520149999999999</v>
+        <v>0.439328</v>
       </c>
       <c r="O9">
-        <v>0.0016220709001794</v>
+        <v>0.001195224954858853</v>
       </c>
       <c r="P9">
-        <v>0.0016220709001794</v>
+        <v>0.001195224954858853</v>
       </c>
       <c r="Q9">
-        <v>0.6664733475299999</v>
+        <v>0.5304210987448889</v>
       </c>
       <c r="R9">
-        <v>5.998260127769999</v>
+        <v>4.773789888704</v>
       </c>
       <c r="S9">
-        <v>0.0005036274861856028</v>
+        <v>0.0003253371242168828</v>
       </c>
       <c r="T9">
-        <v>0.0005036274861856027</v>
+        <v>0.0003253371242168828</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.200808</v>
+        <v>3.887787333333333</v>
       </c>
       <c r="H10">
-        <v>6.602424000000001</v>
+        <v>11.663362</v>
       </c>
       <c r="I10">
-        <v>0.1886551151355205</v>
+        <v>0.2921684453243378</v>
       </c>
       <c r="J10">
-        <v>0.1886551151355205</v>
+        <v>0.2921684453243377</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.057109</v>
+        <v>1.819857</v>
       </c>
       <c r="N10">
-        <v>9.171327</v>
+        <v>5.459571</v>
       </c>
       <c r="O10">
-        <v>0.02694952608666365</v>
+        <v>0.01485317462584607</v>
       </c>
       <c r="P10">
-        <v>0.02694952608666365</v>
+        <v>0.01485317462584607</v>
       </c>
       <c r="Q10">
-        <v>6.728109944072001</v>
+        <v>7.075216993078</v>
       </c>
       <c r="R10">
-        <v>60.55298949664801</v>
+        <v>63.676952937702</v>
       </c>
       <c r="S10">
-        <v>0.005084165946727245</v>
+        <v>0.004339628938564348</v>
       </c>
       <c r="T10">
-        <v>0.005084165946727245</v>
+        <v>0.004339628938564348</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.200808</v>
+        <v>3.887787333333333</v>
       </c>
       <c r="H11">
-        <v>6.602424000000001</v>
+        <v>11.663362</v>
       </c>
       <c r="I11">
-        <v>0.1886551151355205</v>
+        <v>0.2921684453243378</v>
       </c>
       <c r="J11">
-        <v>0.1886551151355205</v>
+        <v>0.2921684453243377</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>267.08268</v>
       </c>
       <c r="O11">
-        <v>0.7848102735793893</v>
+        <v>0.726618572334523</v>
       </c>
       <c r="P11">
-        <v>0.7848102735793893</v>
+        <v>0.7266185723345231</v>
       </c>
       <c r="Q11">
-        <v>195.93256626848</v>
+        <v>346.1202200855733</v>
       </c>
       <c r="R11">
-        <v>1763.39309641632</v>
+        <v>3115.08198077016</v>
       </c>
       <c r="S11">
-        <v>0.148058472521659</v>
+        <v>0.2122950186227675</v>
       </c>
       <c r="T11">
-        <v>0.148058472521659</v>
+        <v>0.2122950186227675</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.200808</v>
+        <v>3.887787333333333</v>
       </c>
       <c r="H12">
-        <v>6.602424000000001</v>
+        <v>11.663362</v>
       </c>
       <c r="I12">
-        <v>0.1886551151355205</v>
+        <v>0.2921684453243378</v>
       </c>
       <c r="J12">
-        <v>0.1886551151355205</v>
+        <v>0.2921684453243377</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>21.16964733333333</v>
+        <v>31.52924033333333</v>
       </c>
       <c r="N12">
-        <v>63.508942</v>
+        <v>94.58772099999999</v>
       </c>
       <c r="O12">
-        <v>0.1866181294337677</v>
+        <v>0.257333028084772</v>
       </c>
       <c r="P12">
-        <v>0.1866181294337677</v>
+        <v>0.257333028084772</v>
       </c>
       <c r="Q12">
-        <v>46.59032920837868</v>
+        <v>122.5789811975558</v>
       </c>
       <c r="R12">
-        <v>419.3129628754081</v>
+        <v>1103.210830778002</v>
       </c>
       <c r="S12">
-        <v>0.03520646469470293</v>
+        <v>0.075184590746132</v>
       </c>
       <c r="T12">
-        <v>0.03520646469470292</v>
+        <v>0.07518459074613199</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.200808</v>
+        <v>3.887787333333333</v>
       </c>
       <c r="H13">
-        <v>6.602424000000001</v>
+        <v>11.663362</v>
       </c>
       <c r="I13">
-        <v>0.1886551151355205</v>
+        <v>0.2921684453243378</v>
       </c>
       <c r="J13">
-        <v>0.1886551151355205</v>
+        <v>0.2921684453243377</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.184005</v>
+        <v>0.1464426666666667</v>
       </c>
       <c r="N13">
-        <v>0.5520149999999999</v>
+        <v>0.439328</v>
       </c>
       <c r="O13">
-        <v>0.0016220709001794</v>
+        <v>0.001195224954858853</v>
       </c>
       <c r="P13">
-        <v>0.0016220709001794</v>
+        <v>0.001195224954858853</v>
       </c>
       <c r="Q13">
-        <v>0.40495967604</v>
+        <v>0.5693379445262222</v>
       </c>
       <c r="R13">
-        <v>3.64463708436</v>
+        <v>5.124041500735999</v>
       </c>
       <c r="S13">
-        <v>0.0003060119724313221</v>
+        <v>0.0003492070168739628</v>
       </c>
       <c r="T13">
-        <v>0.000306011972431322</v>
+        <v>0.0003492070168739628</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.291101666666667</v>
+        <v>1.327597</v>
       </c>
       <c r="H14">
-        <v>3.873305</v>
+        <v>3.982791</v>
       </c>
       <c r="I14">
-        <v>0.1106743221474397</v>
+        <v>0.09976933362110896</v>
       </c>
       <c r="J14">
-        <v>0.1106743221474397</v>
+        <v>0.09976933362110893</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.057109</v>
+        <v>1.819857</v>
       </c>
       <c r="N14">
-        <v>9.171327</v>
+        <v>5.459571</v>
       </c>
       <c r="O14">
-        <v>0.02694952608666365</v>
+        <v>0.01485317462584607</v>
       </c>
       <c r="P14">
-        <v>0.02694952608666365</v>
+        <v>0.01485317462584607</v>
       </c>
       <c r="Q14">
-        <v>3.947038525081667</v>
+        <v>2.416036693629</v>
       </c>
       <c r="R14">
-        <v>35.523346725735</v>
+        <v>21.744330242661</v>
       </c>
       <c r="S14">
-        <v>0.002982620531836242</v>
+        <v>0.001481891334578626</v>
       </c>
       <c r="T14">
-        <v>0.002982620531836242</v>
+        <v>0.001481891334578626</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.291101666666667</v>
+        <v>1.327597</v>
       </c>
       <c r="H15">
-        <v>3.873305</v>
+        <v>3.982791</v>
       </c>
       <c r="I15">
-        <v>0.1106743221474397</v>
+        <v>0.09976933362110896</v>
       </c>
       <c r="J15">
-        <v>0.1106743221474397</v>
+        <v>0.09976933362110893</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>267.08268</v>
       </c>
       <c r="O15">
-        <v>0.7848102735793893</v>
+        <v>0.726618572334523</v>
       </c>
       <c r="P15">
-        <v>0.7848102735793893</v>
+        <v>0.7266185723345231</v>
       </c>
       <c r="Q15">
-        <v>114.9436310952667</v>
+        <v>118.19272157332</v>
       </c>
       <c r="R15">
-        <v>1034.4926798574</v>
+        <v>1063.73449415988</v>
       </c>
       <c r="S15">
-        <v>0.08685834504274559</v>
+        <v>0.07249425075853691</v>
       </c>
       <c r="T15">
-        <v>0.08685834504274559</v>
+        <v>0.07249425075853691</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.291101666666667</v>
+        <v>1.327597</v>
       </c>
       <c r="H16">
-        <v>3.873305</v>
+        <v>3.982791</v>
       </c>
       <c r="I16">
-        <v>0.1106743221474397</v>
+        <v>0.09976933362110896</v>
       </c>
       <c r="J16">
-        <v>0.1106743221474397</v>
+        <v>0.09976933362110893</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>21.16964733333333</v>
+        <v>31.52924033333333</v>
       </c>
       <c r="N16">
-        <v>63.508942</v>
+        <v>94.58772099999999</v>
       </c>
       <c r="O16">
-        <v>0.1866181294337677</v>
+        <v>0.257333028084772</v>
       </c>
       <c r="P16">
-        <v>0.1866181294337677</v>
+        <v>0.257333028084772</v>
       </c>
       <c r="Q16">
-        <v>27.33216695481222</v>
+        <v>41.85812487881233</v>
       </c>
       <c r="R16">
-        <v>245.98950259331</v>
+        <v>376.7231239093109</v>
       </c>
       <c r="S16">
-        <v>0.02065383497550541</v>
+        <v>0.02567394473071982</v>
       </c>
       <c r="T16">
-        <v>0.0206538349755054</v>
+        <v>0.02567394473071982</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.291101666666667</v>
+        <v>1.327597</v>
       </c>
       <c r="H17">
-        <v>3.873305</v>
+        <v>3.982791</v>
       </c>
       <c r="I17">
-        <v>0.1106743221474397</v>
+        <v>0.09976933362110896</v>
       </c>
       <c r="J17">
-        <v>0.1106743221474397</v>
+        <v>0.09976933362110893</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.184005</v>
+        <v>0.1464426666666667</v>
       </c>
       <c r="N17">
-        <v>0.5520149999999999</v>
+        <v>0.439328</v>
       </c>
       <c r="O17">
-        <v>0.0016220709001794</v>
+        <v>0.001195224954858853</v>
       </c>
       <c r="P17">
-        <v>0.0016220709001794</v>
+        <v>0.001195224954858853</v>
       </c>
       <c r="Q17">
-        <v>0.237569162175</v>
+        <v>0.1944168449386666</v>
       </c>
       <c r="R17">
-        <v>2.138122459574999</v>
+        <v>1.749751604448</v>
       </c>
       <c r="S17">
-        <v>0.0001795215973524424</v>
+        <v>0.0001192467972735878</v>
       </c>
       <c r="T17">
-        <v>0.0001795215973524423</v>
+        <v>0.0001192467972735877</v>
       </c>
     </row>
   </sheetData>
